--- a/Misc/Excel/BuffCfg.xlsx
+++ b/Misc/Excel/BuffCfg.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiaohui/Documents/UnityProject/abb2d/Misc/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C447B06-FFB6-A94C-BF76-25F786624276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3280" windowWidth="28100" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
+    <workbookView windowWidth="30980" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="BuffCfg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,11 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>${name}</t>
   </si>
   <si>
+    <t>nBuffID</t>
+  </si>
+  <si>
+    <t>strDescEditor</t>
+  </si>
+  <si>
     <t>${desc}</t>
   </si>
   <si>
@@ -53,12 +50,18 @@
     <t>int32</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>${source}</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>${key}</t>
   </si>
   <si>
@@ -68,38 +71,419 @@
     <t>1</t>
   </si>
   <si>
-    <t>nBuffID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>禁止移动</t>
+  </si>
+  <si>
+    <t>移动修改</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>禁止跳跃</t>
+  </si>
+  <si>
+    <t>禁止旋转</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>忽略质量</t>
+  </si>
+  <si>
+    <t>玩家增强buff</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>玩家增强buff2</t>
+  </si>
+  <si>
+    <t>毒气</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>旋转技能</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -107,9 +491,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -124,17 +750,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -183,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -216,26 +886,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -268,23 +921,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,101 +1082,180 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E055C1F-8A07-9242-A373-CC02569C2EF4}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
@@ -558,11 +1273,8 @@
     <row r="21" spans="1:1">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Misc/Excel/BuffCfg.xlsx
+++ b/Misc/Excel/BuffCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>${name}</t>
   </si>
@@ -68,49 +68,37 @@
     <t>*</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>禁止移动</t>
   </si>
   <si>
     <t>移动修改</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>禁止跳跃</t>
   </si>
   <si>
     <t>禁止旋转</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>忽略质量</t>
   </si>
   <si>
     <t>玩家增强buff</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>玩家增强buff2</t>
   </si>
   <si>
     <t>毒气</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>中毒</t>
   </si>
   <si>
     <t>旋转技能</t>
+  </si>
+  <si>
+    <t>持续爆炸</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1079,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1149,11 +1137,11 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1164,18 +1152,18 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8">
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1183,21 +1171,21 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
+      <c r="B10">
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1205,21 +1193,21 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
+      <c r="B12">
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1227,21 +1215,21 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
+      <c r="B14">
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1249,14 +1237,22 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2"/>

--- a/Misc/Excel/BuffCfg.xlsx
+++ b/Misc/Excel/BuffCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>${name}</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>持续爆炸</t>
+  </si>
+  <si>
+    <t>大型爆炸</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1254,8 +1257,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2"/>

--- a/Misc/Excel/BuffCfg.xlsx
+++ b/Misc/Excel/BuffCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>${name}</t>
   </si>
@@ -35,9 +35,18 @@
     <t>nBuffID</t>
   </si>
   <si>
+    <t>nBuffType</t>
+  </si>
+  <si>
     <t>strDescEditor</t>
   </si>
   <si>
+    <t>strEnumNameEditor</t>
+  </si>
+  <si>
+    <t>strClassNameEditor</t>
+  </si>
+  <si>
     <t>${desc}</t>
   </si>
   <si>
@@ -71,37 +80,109 @@
     <t>禁止移动</t>
   </si>
   <si>
+    <t>NoMovement</t>
+  </si>
+  <si>
+    <t>EntityNoMovementBuffData</t>
+  </si>
+  <si>
     <t>移动修改</t>
   </si>
   <si>
+    <t>MovingChanges</t>
+  </si>
+  <si>
+    <t>EntityMovingChangesBuffData</t>
+  </si>
+  <si>
     <t>禁止跳跃</t>
   </si>
   <si>
+    <t>NoJumping</t>
+  </si>
+  <si>
+    <t>EntityNoJumpingBuffData</t>
+  </si>
+  <si>
     <t>禁止旋转</t>
   </si>
   <si>
+    <t>NoRotation</t>
+  </si>
+  <si>
+    <t>EntityNoRotationBuffData</t>
+  </si>
+  <si>
     <t>忽略质量</t>
   </si>
   <si>
+    <t>NoGravity</t>
+  </si>
+  <si>
+    <t>EntityNoGravityBuffData</t>
+  </si>
+  <si>
     <t>玩家增强buff</t>
   </si>
   <si>
+    <t>PlayerBuff</t>
+  </si>
+  <si>
+    <t>EntityPlayerBuffBuffData</t>
+  </si>
+  <si>
     <t>玩家增强buff2</t>
   </si>
   <si>
+    <t>PlayerBuff_1</t>
+  </si>
+  <si>
+    <t>EntityPlayerBuff_1BuffData</t>
+  </si>
+  <si>
     <t>毒气</t>
   </si>
   <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>EntityPoisonBuffData</t>
+  </si>
+  <si>
     <t>中毒</t>
   </si>
   <si>
+    <t>PoisonSub</t>
+  </si>
+  <si>
+    <t>EntityPoisonSubBuffData</t>
+  </si>
+  <si>
     <t>旋转技能</t>
   </si>
   <si>
+    <t>PlayerSkill2</t>
+  </si>
+  <si>
+    <t>EntityPlayerSkill2BuffData</t>
+  </si>
+  <si>
     <t>持续爆炸</t>
   </si>
   <si>
+    <t>Expiosion</t>
+  </si>
+  <si>
+    <t>EntityExpiosionBuffData</t>
+  </si>
+  <si>
     <t>大型爆炸</t>
+  </si>
+  <si>
+    <t>Expiosion2</t>
+  </si>
+  <si>
+    <t>EntityExpiosion2BuffData</t>
   </si>
 </sst>
 </file>
@@ -1079,193 +1160,335 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="13.8" customWidth="1"/>
+    <col min="5" max="5" width="17.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="26.5333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/Misc/Excel/BuffCfg.xlsx
+++ b/Misc/Excel/BuffCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>${name}</t>
   </si>
@@ -183,6 +183,45 @@
   </si>
   <si>
     <t>EntityExpiosion2BuffData</t>
+  </si>
+  <si>
+    <t>角色特效buff</t>
+  </si>
+  <si>
+    <t>AttackEffect</t>
+  </si>
+  <si>
+    <t>EntityAttackEffectBuffData</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>感电</t>
+  </si>
+  <si>
+    <t>Electrified</t>
+  </si>
+  <si>
+    <t>水循环</t>
+  </si>
+  <si>
+    <t>WaterLoopHit</t>
+  </si>
+  <si>
+    <t>感电循环</t>
+  </si>
+  <si>
+    <t>ElectrifiedLoopHit</t>
+  </si>
+  <si>
+    <t>角色特效buffloop</t>
+  </si>
+  <si>
+    <t>AttackEffectLoop</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1222,7 +1261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,9 +1275,6 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1491,17 +1527,110 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/Excel/BuffCfg.xlsx
+++ b/Misc/Excel/BuffCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>${name}</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>AttackEffectLoop</t>
+  </si>
+  <si>
+    <t>蓝战士感电buff</t>
+  </si>
+  <si>
+    <t>BattleElectrification</t>
+  </si>
+  <si>
+    <t>蓝战士感电追踪buff</t>
+  </si>
+  <si>
+    <t>BattleElectrificationTrace</t>
   </si>
 </sst>
 </file>
@@ -1199,15 +1211,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="13.8" customWidth="1"/>
+    <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="17.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="26.5333333333333" customWidth="1"/>
   </cols>
@@ -1632,6 +1644,40 @@
         <v>64</v>
       </c>
     </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
